--- a/biology/Zoologie/Arachnura/Arachnura.xlsx
+++ b/biology/Zoologie/Arachnura/Arachnura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arachnura est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arachnura est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud et en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud et en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles font quelques millimètres de long et sont bien plus petits que les femelles. Ces dernières font quelques centimètres et ont un abdomen dont la forme rappelle des composantes de la litière. Cette particularité leur a valu le nom commun d' «araignées à queue de scorpion ».
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 20.5, 13/12/2019)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 20.5, 13/12/2019) :
 Arachnura angura Tikader, 1970
 Arachnura feredayi (L. Koch, 1872)
 Arachnura heptotubercula Yin, Hu &amp; Wang, 1983
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vinson, 1863 : Aranéides des îles de la Réunion, Maurice et Madagascar. Paris, p. 1-337.</t>
         </is>
